--- a/biology/Mycologie/Arthrobotrys/Arthrobotrys.xlsx
+++ b/biology/Mycologie/Arthrobotrys/Arthrobotrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthrobotrys est un genre de champignons de la classe des Orbiliomycetes.
 </t>
@@ -511,7 +523,9 @@
           <t>Usage économique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces ou souches d'Arthrobotrys ont été utilisées en lutte biologique contre les nématodes. On les désigne comme des champignons carnivores.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Index Fungorum (site consulté le 23 octobre 2013), le genre compte les espèces suivantes :
 Arthrobotrys aggregata - Arthrobotrys alaskana - Arthrobotrys amerospora - Arthrobotrys anomala - Arthrobotrys apscheronica - Arthrobotrys arthrobotryoides - Arthrobotrys azerbaijanica - Arthrobotrys bakunika - Arthrobotrys botryospora - Arthrobotrys brochopaga - Arthrobotrys candida - Arthrobotrys chazarica - Arthrobotrys chilensis - Arthrobotrys cladodes - Arthrobotrys clavispora - Arthrobotrys compacta - Arthrobotrys conoides - Arthrobotrys constringens - Arthrobotrys cylindrospora - Arthrobotrys dactyloides - Arthrobotrys dendroides - Arthrobotrys doliiformis - Arthrobotrys drechsleri - Arthrobotrys elegans - Arthrobotrys ellipsospora - Arthrobotrys entomopaga - Arthrobotrys eudermata - Arthrobotrys foliicola - Arthrobotrys fruticulosa - Arthrobotrys fusiformis - Arthrobotrys guizhouensis - Arthrobotrys hertziana - Arthrobotrys indica - Arthrobotrys iridis - Arthrobotrys irregularis - Arthrobotrys javanica - Arthrobotrys kirghizica - Arthrobotrys latispora - Arthrobotrys longa - Arthrobotrys longiphora - Arthrobotrys longiramulifera - Arthrobotrys longispora - Arthrobotrys mangrovispora - Arthrobotrys megalospora - Arthrobotrys megaspora - Arthrobotrys microscaphoides - Arthrobotrys multiformis - Arthrobotrys multisecundaria - Arthrobotrys musiformis - Arthrobotrys nematopaga - Arthrobotrys nonseptata - Arthrobotrys oligospora - Arthrobotrys oudemansii - Arthrobotrys oviformis - Arthrobotrys perpasta - Arthrobotrys polycephala - Arthrobotrys pseudoclavata - Arthrobotrys psychrophila - Arthrobotrys pyriformis - Arthrobotrys recta - Arthrobotrys reticulata - Arthrobotrys robusta - Arthrobotrys rosea - Arthrobotrys salina - Arthrobotrys scaphoides - Arthrobotrys shahriari - Arthrobotrys shizishanna - Arthrobotrys sinensis - Arthrobotrys soprunovii - Arthrobotrys stilbacea - Arthrobotrys straminicola - Arthrobotrys superba - Arthrobotrys tabrizica - Arthrobotrys thaumasia - Arthrobotrys venusta - Arthrobotrys yunnanensis
